--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3885.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3885.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.31819309362509</v>
+        <v>2.085355997085571</v>
       </c>
       <c r="B1">
-        <v>2.517500965425851</v>
+        <v>2.970558881759644</v>
       </c>
       <c r="C1">
-        <v>2.502456616845177</v>
+        <v>5.772488117218018</v>
       </c>
       <c r="D1">
-        <v>3.188423663829221</v>
+        <v>2.748442411422729</v>
       </c>
       <c r="E1">
-        <v>2.573833318728427</v>
+        <v>1.182768583297729</v>
       </c>
     </row>
   </sheetData>
